--- a/לוז.xlsx
+++ b/לוז.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\גמילות חסדים\יששכר\זמן\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\גמילות חסדים\ירושלים\אישי\אנחנו\JClock\public\HebrewCommercial13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F425DC9-F791-4830-B7F6-D2E1449787A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522C200F-18F9-4D62-85D4-4BBD5360EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B719817-3024-4771-93E3-38B56544EA6B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="21">
   <si>
     <t>כוכב</t>
   </si>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -292,11 +299,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0D531-2D2E-4F06-A4ED-3E137B2BBB07}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,25 +655,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -677,25 +684,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -709,22 +716,22 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -738,22 +745,22 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -767,22 +774,22 @@
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -793,25 +800,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -822,25 +829,25 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -851,25 +858,25 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -880,25 +887,25 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -912,22 +919,22 @@
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -1014,7 +1021,7 @@
       <c r="F13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -1111,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1197,8 +1204,14 @@
       <c r="I19" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1239,14 @@
       <c r="I20" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1255,8 +1274,14 @@
       <c r="I21" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1284,8 +1309,14 @@
       <c r="I22" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1313,15 +1344,21 @@
       <c r="I23" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -1333,7 +1370,7 @@
       <c r="F24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="10" t="s">
